--- a/학습목표-Java85기.xlsx
+++ b/학습목표-Java85기.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/OneDrive/책집필/[엄진영의 코딩스쿨] 자바 사용법 - 왕초보 편/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eomjinyoung/OneDrive/강의자료/강의관리/비트캠프/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40260" yWindow="940" windowWidth="32140" windowHeight="19520" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="40540" yWindow="460" windowWidth="32140" windowHeight="19520" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="교육과정" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="228">
   <si>
     <t>능력단위</t>
   </si>
@@ -586,6 +586,132 @@
   </si>
   <si>
     <t>java01/step05</t>
+  </si>
+  <si>
+    <t>6강</t>
+  </si>
+  <si>
+    <t>중첩 반복문을 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>for 중첩 사용</t>
+  </si>
+  <si>
+    <t>break와 continue 를 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>중첩 반복문을 한 번에 나갈 수 있다.</t>
+  </si>
+  <si>
+    <t>라벨과 break문을 이용하여 중첩 반복문을 나가는 방법</t>
+  </si>
+  <si>
+    <t>while과 for 문장에서 break, continue를 사용하는 방법</t>
+  </si>
+  <si>
+    <t>7강</t>
+  </si>
+  <si>
+    <t>프로그래밍 연습</t>
+  </si>
+  <si>
+    <t>java01/test01</t>
+  </si>
+  <si>
+    <t>반복문과 조건문 활용</t>
+  </si>
+  <si>
+    <t>배열과 반복문, 조건문 활용</t>
+  </si>
+  <si>
+    <t>8강</t>
+  </si>
+  <si>
+    <t>9강</t>
+  </si>
+  <si>
+    <t>문자열에서 char[] 배열을 추출할 수 있다.</t>
+  </si>
+  <si>
+    <t>프로그램 아규먼트를 사용할 수 있다.</t>
+  </si>
+  <si>
+    <t>문자열을 대문자 또는 소문자로 바꿀 수 있다.</t>
+  </si>
+  <si>
+    <t>사용자 도구함을 만들고 도구를 정의할 수 있다.</t>
+  </si>
+  <si>
+    <t>String 클래스의 배열 추출 메서드 사용법</t>
+  </si>
+  <si>
+    <t>main()의 파라미터 사용법</t>
+  </si>
+  <si>
+    <t>String 클래스의 대소문자 변환 메서드 사용법</t>
+  </si>
+  <si>
+    <t>클래스 및 메서드를 정의하고 호출하는 방법</t>
+  </si>
+  <si>
+    <t>java01/step06</t>
+  </si>
+  <si>
+    <t>10강</t>
+  </si>
+  <si>
+    <t>소스 파일과 .class 파일을 분리하여 관리할 수 있다.</t>
+  </si>
+  <si>
+    <t>자바 컴파일러의 -d 옵션 사용법</t>
+  </si>
+  <si>
+    <t>JVM의 -classpath 또는 -cp 사용법</t>
+  </si>
+  <si>
+    <t>클래스에 패키지를 적용하는 방법</t>
+  </si>
+  <si>
+    <t>패키지 이름을 짓는 방법</t>
+  </si>
+  <si>
+    <t>패키지 클래스를 컴파일하고 실행하는 방법</t>
+  </si>
+  <si>
+    <t>자바 패키지를 적용할 수 있다.</t>
+  </si>
+  <si>
+    <t>4바이트와 8바이트 정수 리터럴을 구분하여 표현할 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">접미사 L 또는 l을 사용하여 8바이트 정수를 표현하는 방법 </t>
+  </si>
+  <si>
+    <t>4바이트와 8바이트 부동소수점을 구분하여 표현할 수 있다.</t>
+  </si>
+  <si>
+    <t>접미사 F 또는 f를 사용하여 4바이트 부동소수점을 표현하는 방법</t>
+  </si>
+  <si>
+    <t>2진수, 8진수, 10진수, 16진수를 구분하여 표현할 수 있다.</t>
+  </si>
+  <si>
+    <t>2진수, 8진수, 10진수, 16진수로 정수를 표현하는 방법</t>
+  </si>
+  <si>
+    <t>밑줄(_)을 사용하여 숫자를 읽기 좋게 표현하는 방법</t>
+  </si>
+  <si>
+    <t>정수를 저장하는 네가지 방법; Sign-Magnitude, 1의 보수, 2의 보수, Excess-K</t>
+  </si>
+  <si>
+    <t>정수를 메모리에 저장하는 다양한 기법의 원리를 이해한다.</t>
+  </si>
+  <si>
+    <t>부동소수점을 저장하는 원리를 이해한다.</t>
+  </si>
+  <si>
+    <t>부동소수점을 2진수로 바꾸는 방법; 가수부, 지수부를 추출하는 방법</t>
   </si>
 </sst>
 </file>
@@ -2604,10 +2730,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2953,36 +3079,28 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>150</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>152</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>153</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>184</v>
@@ -2990,115 +3108,338 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>160</v>
-      </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>167</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>176</v>
-      </c>
-      <c r="D54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" t="s">
-        <v>178</v>
       </c>
       <c r="D56" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
